--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154951.956707123</v>
+        <v>-1156932.873287549</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553588</v>
+        <v>2264668.837800617</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14755729.43696493</v>
+        <v>14764178.64187869</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>173.02414134234</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>131.8612775267</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.8092116959088</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>4.078278905613655</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.5424857632412</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>168.4113825780304</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>399.3976635617693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>68.90297685032094</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.264003285459337</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>208.9978294690251</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.7873989665795</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>86.34486117435753</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274097</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014454</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>10.13442842447637</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>186.0677728671737</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>174.9428846697289</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>234.1231749377857</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.41543781797637</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>111.8508996147492</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>74.55928277535983</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002198</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>276.9863416118693</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>78.67531269948199</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6.450647262791145</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3196,16 +3196,16 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223453</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2467.348541606958</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2467.348541606958</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.285654263387</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.285654263387</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.285654263387</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y2" t="n">
-        <v>1746.146322287575</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D4" t="n">
-        <v>350.0227938960813</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>350.0227938960813</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>350.0227938960813</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>181.0229936344138</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>181.0229936344138</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>509.7210873825632</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1371.274936282423</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>558.0164765518583</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>558.0164765518583</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.314837422907</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1215.352320482495</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>857.0866218757444</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2983692775002</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2177.709280319473</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>2177.709280319473</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084171</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.020265289186</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084171</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823853</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514143</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795211</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515101</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636235</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526313</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5154,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662454</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471177</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980061</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="V13" t="n">
-        <v>786.0822064765186</v>
+        <v>1133.156678913838</v>
       </c>
       <c r="W13" t="n">
-        <v>496.665036439558</v>
+        <v>1045.939647424588</v>
       </c>
       <c r="X13" t="n">
-        <v>496.665036439558</v>
+        <v>817.9500965265709</v>
       </c>
       <c r="Y13" t="n">
-        <v>496.665036439558</v>
+        <v>597.1575173830407</v>
       </c>
     </row>
     <row r="14">
@@ -5264,43 +5264,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636235</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526313</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.373568341285</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473452</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1111.049015153075</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150549</v>
+        <v>821.9203763666327</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150549</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715248</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.9798268587606</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>527.0436439308536</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.42087083253</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.42087083253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.6282916890003</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>727.647686332073</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>1244.231782352015</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>1153.913158293454</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.7517393246783</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
         <v>247.6350999123426</v>
@@ -6139,13 +6139,13 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1385.935563876338</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1385.935563876338</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1096.806925089896</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>1096.806925089896</v>
+        <v>909.3712637033473</v>
       </c>
       <c r="W25" t="n">
-        <v>807.3897550529354</v>
+        <v>619.9540936663865</v>
       </c>
       <c r="X25" t="n">
-        <v>579.400204154918</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="Y25" t="n">
-        <v>579.400204154918</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6288,40 +6288,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277041</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845934</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864556</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528589</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471203</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6470,43 +6470,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6555,7 +6555,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110211</v>
+        <v>439.5324299542212</v>
       </c>
       <c r="C31" t="n">
-        <v>381.671350464485</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="D31" t="n">
-        <v>381.671350464485</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="E31" t="n">
-        <v>289.5191221634626</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="F31" t="n">
-        <v>198.3900399469229</v>
+        <v>360.0624171264616</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386961</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220494</v>
+        <v>730.4517433652491</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598901</v>
+        <v>565.4200295030899</v>
       </c>
     </row>
     <row r="32">
@@ -6707,19 +6707,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6783,16 +6783,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525395</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649688</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571606</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636245</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307618</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526315</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103121</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0962224193113</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>619.9155961091578</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1484.434411762513</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2462.984714592341</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3442.736986818988</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>4077.629984761949</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4472.404351119128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4720.69071287481</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938671</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>802.402861061814</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776802</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492841</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776802</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>199.7396287231107</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928348</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776766</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,16 +11309,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04458121535775</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465682</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.1781371622335</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.1123926741515</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>35.4797881912155</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>111.5801136668621</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>52.11417746079163</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.1692155341184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>86.06991036885401</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>151.1503726136773</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338336</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>9.251010786708015</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>33.36825177058859</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>104.8396645720294</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1289664.377632064</v>
+        <v>1289664.377632065</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1286499.206001248</v>
+        <v>1301130.495151366</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>164208.3539728566</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728566</v>
@@ -26323,7 +26323,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950836</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
@@ -26332,28 +26332,28 @@
         <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="J2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381078</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768949</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.149070499195659e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925939</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284455</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755743</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230236</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230242</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649886</v>
+        <v>47468.16806649891</v>
       </c>
       <c r="L4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683109.3806269235</v>
+        <v>-683109.3806269236</v>
       </c>
       <c r="C6" t="n">
-        <v>-93141.50141237894</v>
+        <v>-93141.501412379</v>
       </c>
       <c r="D6" t="n">
-        <v>-93141.50141237906</v>
+        <v>-93141.50141237909</v>
       </c>
       <c r="E6" t="n">
-        <v>-490039.2840828315</v>
+        <v>-490136.7432088025</v>
       </c>
       <c r="F6" t="n">
-        <v>35120.75239406456</v>
+        <v>35023.29326809237</v>
       </c>
       <c r="G6" t="n">
-        <v>35120.75239406455</v>
+        <v>35023.29326809123</v>
       </c>
       <c r="H6" t="n">
-        <v>35120.75239406449</v>
+        <v>35023.29326809243</v>
       </c>
       <c r="I6" t="n">
-        <v>35120.75239406459</v>
+        <v>35023.29326809233</v>
       </c>
       <c r="J6" t="n">
-        <v>-141302.4667985292</v>
+        <v>-141399.9259245005</v>
       </c>
       <c r="K6" t="n">
-        <v>-25530.12696145836</v>
+        <v>-25548.62069939402</v>
       </c>
       <c r="L6" t="n">
-        <v>4428.008558341593</v>
+        <v>4428.008558341724</v>
       </c>
       <c r="M6" t="n">
         <v>-120030.0998746288</v>
       </c>
       <c r="N6" t="n">
-        <v>14770.91535920835</v>
+        <v>14770.91535920851</v>
       </c>
       <c r="O6" t="n">
-        <v>14770.91535920846</v>
+        <v>14770.91535920849</v>
       </c>
       <c r="P6" t="n">
-        <v>-167401.2778653642</v>
+        <v>-29391.68994363735</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540988</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054540988</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,7 +26759,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108364</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750893</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.638741237012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,10 +26981,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.423548596878469e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.42417901531778</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>119.3628899815893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.156410096429425</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>221.6313764834235</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.1913559002394</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>117.8704916639474</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.478382179942116</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>182.3211906579684</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>165.9828178131685</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>3.147709480993768</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>9.701276818911234e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443611</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444939</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304431</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565509</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927176</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540877</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946984</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364749</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.7861055513541</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386723</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127054</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724838</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813454</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855519</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677459</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361477</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263747</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.105041346907</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337658</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892234</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351801</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34202,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>214.4070918624592</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221107</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092042</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109063</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221192</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081108</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951463</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109115</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502042</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349773</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504655</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092042</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556535</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299103</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118005</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187453</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>384.9870895382553</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>482.1033309642196</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714625</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092011</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502434</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
